--- a/biology/Botanique/Tonnelier/Tonnelier.xlsx
+++ b/biology/Botanique/Tonnelier/Tonnelier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tonnelier est un artisan qui confectionne des tonneaux (fûts en bois). Tout le savoir-faire du tonnelier est réuni dans cet objet pratique et nécessaire. Son coup de main et son coup d'œil feront la bonne barrique qui permettra le vieillissement du vin, de la bière ou de l'alcool. 
 Il travaille dans une tonnellerie, et se fournit en bois auprès d'un merrandier.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Comment a-t-on pu imaginer de faire tenir un liquide dans un montage de morceaux de bois fort difficile à assembler ? La plus grande partie des inventions humaines figurait déjà dans la nature : la maison, c'est la grotte, le bateau, c'est le tronc d'arbre qui flotte, même la roue, c'est le soleil qui roule dans l'espace. Le récipient naturel, c'est l'amphore, le vase fabriqué à l'image d'une pierre creuse, en moulant l'argile humide, ou bien c'est l'outre que l'on trouve toute faite en creusant la peau d'un bouc. Mais la barrique est bien une invention de poètes, l'imagination d'un peuple de rêveurs, insoucieux du temps et de la vie pratique, nos ancêtres les Celtes[1]. »
-Le tonneau est connu en Europe depuis plus de 2 000 ans, inventé par les Gaulois. Il servit d'abord à stocker des produits solides comme les grains, les salaisons ou même les clous, mais également des liquides par la suite (vin, bière, cidre, eau) ; l'étanchéité du récipient s'étant améliorée avec le savoir-faire[2].
+« Comment a-t-on pu imaginer de faire tenir un liquide dans un montage de morceaux de bois fort difficile à assembler ? La plus grande partie des inventions humaines figurait déjà dans la nature : la maison, c'est la grotte, le bateau, c'est le tronc d'arbre qui flotte, même la roue, c'est le soleil qui roule dans l'espace. Le récipient naturel, c'est l'amphore, le vase fabriqué à l'image d'une pierre creuse, en moulant l'argile humide, ou bien c'est l'outre que l'on trouve toute faite en creusant la peau d'un bouc. Mais la barrique est bien une invention de poètes, l'imagination d'un peuple de rêveurs, insoucieux du temps et de la vie pratique, nos ancêtres les Celtes. »
+Le tonneau est connu en Europe depuis plus de 2 000 ans, inventé par les Gaulois. Il servit d'abord à stocker des produits solides comme les grains, les salaisons ou même les clous, mais également des liquides par la suite (vin, bière, cidre, eau) ; l'étanchéité du récipient s'étant améliorée avec le savoir-faire.
 D'abord appelé charpentier de tonneau, les maîtres tonneliers « tonloiers » ou « barilliers » étaient déjà réunis en corporation au IXe siècle. Au XIIIe siècle, ils remirent leurs statuts pour approbation en même temps que 121 autres corps de métiers. En 1444, Charles VII de France confirma les statuts des tonneliers ou barilliers (les tonneliers charpentiers ou foudriers ont pour leur part été rattachés à la corporation des charpentiers dès le Xe siècle). Il donne par la même occasion aux tonneliers barilliers le privilège de déchargeurs de vin : ils sont les seuls à avoir le droit de débarquer le vin qui arrive par bateau.
 Au Moyen Âge, les rois avaient leurs propres tonneliers, chargés d'entretenir les barils et les muids. Ils faisaient aussi fonction d'échanson (fonction historiquement avérée du règne de Charlemagne à celui de saint Louis). 
 Les maîtres brasseurs, alors organisés en corporation avaient également le métier de tonnelier pendant la saison chaude, durant laquelle le brassage était interdit. 
@@ -527,7 +541,7 @@
 			Grand cellier, XVIIIe siècleSaint-Tropez
 	Fabrication des tonneaux
 			Gravure de 1568Allemagne
-			Le tonnelier et ses outils(Jean Frédéric Wentzel, 1847[3]).
+			Le tonnelier et ses outils(Jean Frédéric Wentzel, 1847).
 			Le Tonnelier et son universcidrerie en Normandie
 Actuellement, le tonneau est principalement utilisé pour l’élevage du vin et des alcools en fûts de chêne.
 Bien qu'aucune machine n'ait pu remplacer complètement l'homme dans la fabrication des barriques, il reste aujourd'hui de nombreuses tonnelleries dans le monde, notamment en France, dont la majorité allient une fabrication mécanique et manuelle.
@@ -561,17 +575,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-Il existe plus de 150 entreprises de tonnellerie en France, ce qui représente environ 1 500 personnes employées dans le monde de la tonnellerie et 600 000 tonneaux produits. Cela fait de la France le leader mondial[4]. Cinquante d'entre elles sont regroupées dans la fédération française de la tonnellerie, créée en 1978 et représentent 90% de la production[5].
-Elles sont principalement situées sur les cinq bassins viticoles majeurs[4],[6] :
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plus de 150 entreprises de tonnellerie en France, ce qui représente environ 1 500 personnes employées dans le monde de la tonnellerie et 600 000 tonneaux produits. Cela fait de la France le leader mondial. Cinquante d'entre elles sont regroupées dans la fédération française de la tonnellerie, créée en 1978 et représentent 90% de la production.
+Elles sont principalement situées sur les cinq bassins viticoles majeurs, :
 Aquitaine : une douzaine de tonnelleries dont : Allary, Boutes, Bel Air, Charloi, Demptos, Doreaux, Nadalie, Saury, Sylvain;
 Bourgogne : une quinzaine de tonnelleries dont Berthomieu, Billon, Cadus, Cavin, Chassin, Damy, Dargaud et Jaegle, François Frères, Gillet, Remond, Rousseau, Seguin-Moreau, Sirugue, Taransaud, Tonnellerie de Marsannay, Tonnellerie de Mercurey, ;
 Charente : une douzaine de tonnelleries dont Boutes, Radoux, Seguin-Moreau, Taransaud, Vicard;
 Loire : Tonnellerie du val de Loire, Baron ;
 Rhône : Bouyoud, Vallaurine, Villard.
-Ces entreprises sont aujourd'hui prospères, et exportent 75 % de leur fabrication dans le monde entier, dont la moitié aux États-Unis d'Amérique. Certaines tonnelleries sont cotées en Bourse, ce qui en fait un des métiers les plus dynamiques de l'industrie du bois. La tonnellerie représente le premier marché du bois de chêne français, avec 300 000 m3 de grumes achetées en 2014[4].
-Monde
-D'immenses tonnelleries mécanisées existent aux États-Unis pour la fabrication des fûts à whisky. Il existe des tonnelleries au Portugal, en Espagne, en Italie, en Irlande, en Suisse, en Autriche, en Hongrie, et dans la plupart des régions vinicoles traditionnelles.
+Ces entreprises sont aujourd'hui prospères, et exportent 75 % de leur fabrication dans le monde entier, dont la moitié aux États-Unis d'Amérique. Certaines tonnelleries sont cotées en Bourse, ce qui en fait un des métiers les plus dynamiques de l'industrie du bois. La tonnellerie représente le premier marché du bois de chêne français, avec 300 000 m3 de grumes achetées en 2014.
 </t>
         </is>
       </c>
@@ -597,13 +614,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fabrication</t>
+          <t>Chiffres de fabrication</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le tonnelier utilise le plus fréquemment du chêne pour la fabrication d'un tonneau. 
-Le bois est d'abord préparé par un merrandier en douelles, qui seront assemblées, chauffées et resserrées à l'aide d'un cable et de cercles en fer. Sont ensuite insérées les fonds , puis le trou de bonde et de broquereau percés. Les principales étapes de la fabrication d'un tonneau sont ainsi le dressage, le trempage, le cintrage, le cerclage, le rognage-rainurage, la pose de la bonde[8].
+          <t>Monde</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'immenses tonnelleries mécanisées existent aux États-Unis pour la fabrication des fûts à whisky. Il existe des tonnelleries au Portugal, en Espagne, en Italie, en Irlande, en Suisse, en Autriche, en Hongrie, et dans la plupart des régions vinicoles traditionnelles.
 </t>
         </is>
       </c>
@@ -629,10 +651,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tonnelier utilise le plus fréquemment du chêne pour la fabrication d'un tonneau. 
+Le bois est d'abord préparé par un merrandier en douelles, qui seront assemblées, chauffées et resserrées à l'aide d'un cable et de cercles en fer. Sont ensuite insérées les fonds , puis le trou de bonde et de broquereau percés. Les principales étapes de la fabrication d'un tonneau sont ainsi le dressage, le trempage, le cintrage, le cerclage, le rognage-rainurage, la pose de la bonde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tonnelier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tonnelier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Capacités des fûts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire et la géographie des régions viticoles ont donné naissance à une grande diversité de contenances. Les capacités varient ainsi en fonction de l'utilisation, de quelques dizaines à plusieurs centaines de litres. Ces volumes sont cependant standardisés à l'intérieur même des régions, mais on retrouve des dénominations différentes, et des variations de volumes d'une région à l'autre.
 </t>
